--- a/_cv_data/publications.xlsx
+++ b/_cv_data/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulyngs/Library/Mobile Documents/com~apple~CloudDocs/Academia/Personligt/CVs/pagedown_cv/_cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8286335-3220-6F48-8FD6-2B495FC933A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B5785-A255-524F-B3B2-1F2325817171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -60,18 +60,9 @@
     <t>So, Tell Me What Users Want, What They Really, Really Want!</t>
   </si>
   <si>
-    <t>CHI EA '18 (alt.chi): Proceedings of the 2018 CHI Conference Extended Abstracts on Human Factors in Computing Systems</t>
-  </si>
-  <si>
     <t>It's Reducing a Human Being to a Percentage': Perceptions of Justice in Algorithmic Decisions</t>
   </si>
   <si>
-    <t>CHI '18: Proceedings of the 2018 CHI Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t>CHI EA ’18: Proceedings of the 2018 CHI Conference Extended Abstracts on Human Factors in Computing Systems</t>
-  </si>
-  <si>
     <t>‘It’s More Fun With My Phone’: A Replication Study of Cell Phone Presence and Task Performance</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>workshop paper</t>
   </si>
   <si>
-    <t>CHI’17, Designing for Curiosity: An Interdisciplinary Workshop</t>
-  </si>
-  <si>
     <t>https://ulriklyngs.com/file/90/download?token=6wf6Lexw</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Putting Self-Control at the Centre of Digital Wellbeing</t>
   </si>
   <si>
-    <t>CHI EA '17 Extended Abstracts, ACM Conference on Human Factors in Computing Systems ·</t>
-  </si>
-  <si>
     <t>It's More Fun With My Phone': A Replication Study of Cell Phone Presence and Task Performance</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>professional_2_page</t>
   </si>
   <si>
-    <t>CHI '19: Proceedings of the 2019 CHI Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
     <t>prof_venue</t>
   </si>
   <si>
@@ -219,12 +201,6 @@
     <t>Reuben Binns, Max van Kleek, Michael Veale, Ulrik Lyngs, Jun Zhao, Nigel Shadbolt</t>
   </si>
   <si>
-    <t>Ulrik Lyngs and Ryan McKay</t>
-  </si>
-  <si>
-    <t>Ulrik Lyngs, Emma Cohen, Wall Hattori, Martha Newson, and Dan Levin</t>
-  </si>
-  <si>
     <t>Jun Zhao, Ulrik Lyngs, Nigel Shadbolt</t>
   </si>
   <si>
@@ -298,6 +274,93 @@
   </si>
   <si>
     <t>CHI’19 Workshop: Designing for Digital Wellbeing</t>
+  </si>
+  <si>
+    <t>‘I Just Want to Hack Myself to Not Get Distracted’: Evaluating Design Interventions for Self-Control on Facebook</t>
+  </si>
+  <si>
+    <t>Ulrik Lyngs, Kai Lukoff, Petr Slovak, William Seymour, Helena Webb, Marina Jirotka, Jun Zhao, Max Van Kleek, Nigel Shadbolt</t>
+  </si>
+  <si>
+    <t>Evaluating Design Interventions for Self-Control on Facebook</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2020 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>https://osf.io/qtg7h/</t>
+  </si>
+  <si>
+    <t>Ulrik Lyngs, Emma Cohen, Wall Hattori, Martha Newson, Dan Levin</t>
+  </si>
+  <si>
+    <t>Ulrik Lyngs, Ryan McKay</t>
+  </si>
+  <si>
+    <t>Katie Winkle, Marina Jirotka, Ulrik Lyngs, Carl Macrae, Helena Webb, Alan Winfield</t>
+  </si>
+  <si>
+    <t>“What Could Possibly Go Wrong?” Logging HRI Data for Robot Accident Investigations</t>
+  </si>
+  <si>
+    <t>Companion of the 2020 ACM/IEEE International Conference on Human-Robot Interaction</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2018 CHI Conference Extended Abstracts (alt.chi) on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>CHI'17 workshop, Designing for Curiosity: An Interdisciplinary Workshop</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2017 CHI Conference Extended Abstracts on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>venue_abbrev</t>
+  </si>
+  <si>
+    <t>CHI'20</t>
+  </si>
+  <si>
+    <t>HRI’20 Companion</t>
+  </si>
+  <si>
+    <t>CHI'19</t>
+  </si>
+  <si>
+    <t>WebSci'18</t>
+  </si>
+  <si>
+    <t>CHI'18</t>
+  </si>
+  <si>
+    <t>CHI'18 EA</t>
+  </si>
+  <si>
+    <t>CogSci'17</t>
+  </si>
+  <si>
+    <t>CHI'17</t>
+  </si>
+  <si>
+    <t>CHI'17 EA</t>
+  </si>
+  <si>
+    <t>CHI'18 EA (alt.chi)</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2020 CHI Conference Extended Abstracts on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>CHI'20 EA</t>
+  </si>
+  <si>
+    <t>Further Exploring Communal Technology Use in Smart Homes: Social Expectations</t>
+  </si>
+  <si>
+    <t>Martin Kraemer, Ulrik Lyngs, Helena Webb, Ivan Flechais</t>
+  </si>
+  <si>
+    <t>Communal Technology Use in Smart Homes</t>
   </si>
 </sst>
 </file>
@@ -666,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D849796-8D2F-2144-8637-FA01837A8DE5}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,15 +743,17 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="7" width="49.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -697,458 +762,580 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2">
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
         <v>2019</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="N6" s="1"/>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>2016</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
+        <v>2018</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="N9" s="1"/>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="N10" s="1"/>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>2016</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="N11" s="1"/>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="85" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>45</v>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>2019</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{6EC5B298-2427-5747-A27C-098FCF271437}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{4259178C-1153-554C-A054-5CECA758F56D}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{DA43A3E4-C374-CB47-97A0-E54F3FF1B69D}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{4DCB5AF8-27E6-5C4F-BC66-7410E0A1DA33}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{77F8AB0B-104B-1144-9115-997327C4BF00}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{09D6C851-A176-8248-961E-FABBA12FAF46}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{2DAB3535-1D8A-7543-9712-4C92AA4E1F8D}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{E8DAA116-1175-AF47-9174-B814693897BB}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{5081606E-AECD-0A4E-94AF-90AAD0F60FAD}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{D80AF795-CEC7-2C48-ABD3-224438FFFD8C}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{2C875ED6-7B5C-1040-8B19-F1CC72E718C1}"/>
-    <hyperlink ref="I12" r:id="rId12" xr:uid="{2BCD7964-E196-0441-9017-AF2FA366E6E2}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{6EC5B298-2427-5747-A27C-098FCF271437}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{4259178C-1153-554C-A054-5CECA758F56D}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{DA43A3E4-C374-CB47-97A0-E54F3FF1B69D}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{4DCB5AF8-27E6-5C4F-BC66-7410E0A1DA33}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{77F8AB0B-104B-1144-9115-997327C4BF00}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{09D6C851-A176-8248-961E-FABBA12FAF46}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{2DAB3535-1D8A-7543-9712-4C92AA4E1F8D}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{E8DAA116-1175-AF47-9174-B814693897BB}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{5081606E-AECD-0A4E-94AF-90AAD0F60FAD}"/>
+    <hyperlink ref="J14" r:id="rId10" xr:uid="{D80AF795-CEC7-2C48-ABD3-224438FFFD8C}"/>
+    <hyperlink ref="J16" r:id="rId11" xr:uid="{2C875ED6-7B5C-1040-8B19-F1CC72E718C1}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{2BCD7964-E196-0441-9017-AF2FA366E6E2}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{5A816734-7CFE-C34F-8731-58C85930E565}"/>
+    <hyperlink ref="L4" r:id="rId14" xr:uid="{0C9D072B-4E7E-2040-B4AF-6C0EDC74A174}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
